--- a/ADS_2_RC/data_2_RC.xlsx
+++ b/ADS_2_RC/data_2_RC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tubes ADS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tubes ADS\ADS_2_RC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B567CDB1-FD2F-40A6-9E67-CE8915CEFCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E73253-6487-4558-9AA1-B36D900F995D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BB9478C9-1BB4-4AB7-BA35-5CD742F07B62}"/>
   </bookViews>
@@ -324,9 +324,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-ID" baseline="0"/>
-              <a:t> Jam Belajar</a:t>
+              <a:t> Jam Belajar Per Minggu</a:t>
             </a:r>
-            <a:endParaRPr lang="en-ID"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -746,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ID"/>
-              <a:t>Rata-Rata Jam Belajar</a:t>
+              <a:t>Rata-Rata Jam Belajar per minggu</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2299,15 +2298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>828674</xdr:colOff>
+      <xdr:colOff>826768</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>49529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>60959</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2863,8 +2862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136EF635-E7A9-4FC6-A365-F65057E560B2}">
   <dimension ref="B1:O459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="D45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
